--- a/AirpocketAPI/upload/drc-02.xlsx
+++ b/AirpocketAPI/upload/drc-02.xlsx
@@ -386,36 +386,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -442,6 +412,36 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,55 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>93134</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="211666"/>
-          <a:ext cx="1811867" cy="664188"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,52 +756,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="2:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="29"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:22" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -868,14 +819,14 @@
         <v>2</v>
       </c>
       <c r="F6" s="20"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="20" t="s">
         <v>5</v>
       </c>
@@ -972,240 +923,260 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="23"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="23"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="23"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="13"/>
     </row>
     <row r="12" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="23"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="13"/>
     </row>
     <row r="13" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="23"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="13"/>
     </row>
     <row r="14" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="23"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="13"/>
     </row>
     <row r="15" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="23"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="13"/>
     </row>
     <row r="16" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="23"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="13"/>
     </row>
     <row r="17" spans="2:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="23"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="E10:V10"/>
+    <mergeCell ref="E11:V11"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="C6:C7"/>
@@ -1222,29 +1193,8 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="E10:V10"/>
-    <mergeCell ref="E11:V11"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="E13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>